--- a/data/0145.xlsx
+++ b/data/0145.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1210"/>
+  <dimension ref="A1:I1211"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43576,6 +43576,41 @@
         <v>105000</v>
       </c>
     </row>
+    <row r="1211">
+      <c r="A1211" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1211" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1211" t="inlineStr">
+        <is>
+          <t>0145</t>
+        </is>
+      </c>
+      <c r="D1211" t="inlineStr">
+        <is>
+          <t>TFP</t>
+        </is>
+      </c>
+      <c r="E1211" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F1211" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G1211" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H1211" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I1211" t="n">
+        <v>30000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0145.xlsx
+++ b/data/0145.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1211"/>
+  <dimension ref="A1:I1212"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43611,6 +43611,41 @@
         <v>30000</v>
       </c>
     </row>
+    <row r="1212">
+      <c r="A1212" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1212" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1212" t="inlineStr">
+        <is>
+          <t>0145</t>
+        </is>
+      </c>
+      <c r="D1212" t="inlineStr">
+        <is>
+          <t>TFP</t>
+        </is>
+      </c>
+      <c r="E1212" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F1212" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G1212" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H1212" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I1212" t="n">
+        <v>20000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0145.xlsx
+++ b/data/0145.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1212"/>
+  <dimension ref="A1:I1213"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43646,6 +43646,41 @@
         <v>20000</v>
       </c>
     </row>
+    <row r="1213">
+      <c r="A1213" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1213" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1213" t="inlineStr">
+        <is>
+          <t>0145</t>
+        </is>
+      </c>
+      <c r="D1213" t="inlineStr">
+        <is>
+          <t>TFP</t>
+        </is>
+      </c>
+      <c r="E1213" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F1213" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G1213" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H1213" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I1213" t="n">
+        <v>92000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0145.xlsx
+++ b/data/0145.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1213"/>
+  <dimension ref="A1:I1214"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43681,6 +43681,41 @@
         <v>92000</v>
       </c>
     </row>
+    <row r="1214">
+      <c r="A1214" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1214" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1214" t="inlineStr">
+        <is>
+          <t>0145</t>
+        </is>
+      </c>
+      <c r="D1214" t="inlineStr">
+        <is>
+          <t>TFP</t>
+        </is>
+      </c>
+      <c r="E1214" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F1214" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="G1214" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H1214" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="I1214" t="n">
+        <v>624000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0145.xlsx
+++ b/data/0145.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1214"/>
+  <dimension ref="A1:I1215"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43716,6 +43716,41 @@
         <v>624000</v>
       </c>
     </row>
+    <row r="1215">
+      <c r="A1215" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1215" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1215" t="inlineStr">
+        <is>
+          <t>0145</t>
+        </is>
+      </c>
+      <c r="D1215" t="inlineStr">
+        <is>
+          <t>TFP</t>
+        </is>
+      </c>
+      <c r="E1215" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F1215" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G1215" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H1215" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I1215" t="n">
+        <v>337000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0145.xlsx
+++ b/data/0145.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1215"/>
+  <dimension ref="A1:I1216"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43751,6 +43751,41 @@
         <v>337000</v>
       </c>
     </row>
+    <row r="1216">
+      <c r="A1216" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1216" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1216" t="inlineStr">
+        <is>
+          <t>0145</t>
+        </is>
+      </c>
+      <c r="D1216" t="inlineStr">
+        <is>
+          <t>TFP</t>
+        </is>
+      </c>
+      <c r="E1216" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="F1216" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="G1216" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H1216" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="I1216" t="n">
+        <v>201000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0145.xlsx
+++ b/data/0145.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1216"/>
+  <dimension ref="A1:I1217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43786,6 +43786,41 @@
         <v>201000</v>
       </c>
     </row>
+    <row r="1217">
+      <c r="A1217" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1217" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1217" t="inlineStr">
+        <is>
+          <t>0145</t>
+        </is>
+      </c>
+      <c r="D1217" t="inlineStr">
+        <is>
+          <t>TFP</t>
+        </is>
+      </c>
+      <c r="E1217" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="F1217" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="G1217" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H1217" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="I1217" t="n">
+        <v>1080000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0145.xlsx
+++ b/data/0145.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43821,6 +43821,41 @@
         <v>1080000</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>0145</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>TFP</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>768000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0145.xlsx
+++ b/data/0145.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43856,6 +43856,41 @@
         <v>768000</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>0145</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>TFP</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>1204000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0145.xlsx
+++ b/data/0145.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43891,6 +43891,41 @@
         <v>1204000</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>0145</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>TFP</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>865000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0145.xlsx
+++ b/data/0145.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43926,6 +43926,41 @@
         <v>865000</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>0145</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>TFP</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>568000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0145.xlsx
+++ b/data/0145.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43961,6 +43961,41 @@
         <v>568000</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>0145</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>TFP</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>118500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0145.xlsx
+++ b/data/0145.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43996,6 +43996,76 @@
         <v>118500</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>0145</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>TFP</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>532100</v>
+      </c>
+    </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>0145</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>TFP</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>1444600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0145.xlsx
+++ b/data/0145.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44066,6 +44066,76 @@
         <v>1444600</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>0145</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>TFP</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>849800</v>
+      </c>
+    </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>0145</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>TFP</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>639500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0145.xlsx
+++ b/data/0145.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44136,6 +44136,43 @@
         <v>639500</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>0145</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>TFP</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="I1227" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0145.xlsx
+++ b/data/0145.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44173,6 +44173,41 @@
         </is>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>0145</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>TFP</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>115000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0145.xlsx
+++ b/data/0145.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44208,6 +44208,41 @@
         <v>115000</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>0145</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>TFP</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>122800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0145.xlsx
+++ b/data/0145.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1230"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44243,6 +44243,41 @@
         <v>122800</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>0145</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>TFP</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>570400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0145.xlsx
+++ b/data/0145.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1230"/>
+  <dimension ref="A1:I1232"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44278,6 +44278,76 @@
         <v>570400</v>
       </c>
     </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>0145</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>TFP</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>122100</v>
+      </c>
+    </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>0145</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>TFP</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>110000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0145.xlsx
+++ b/data/0145.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1232"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44348,6 +44348,41 @@
         <v>110000</v>
       </c>
     </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>0145</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>TFP</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>28100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0145.xlsx
+++ b/data/0145.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44383,6 +44383,41 @@
         <v>28100</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>0145</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>TFP</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>534600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0145.xlsx
+++ b/data/0145.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2281"/>
+  <dimension ref="A1:I2282"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81063,6 +81063,41 @@
         <v>534600</v>
       </c>
     </row>
+    <row r="2282">
+      <c r="A2282" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2282" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2282" t="inlineStr">
+        <is>
+          <t>0145</t>
+        </is>
+      </c>
+      <c r="D2282" t="inlineStr">
+        <is>
+          <t>TFP</t>
+        </is>
+      </c>
+      <c r="E2282" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F2282" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G2282" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H2282" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I2282" t="n">
+        <v>511400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0145.xlsx
+++ b/data/0145.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2282"/>
+  <dimension ref="A1:I2283"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81098,6 +81098,41 @@
         <v>511400</v>
       </c>
     </row>
+    <row r="2283">
+      <c r="A2283" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2283" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2283" t="inlineStr">
+        <is>
+          <t>0145</t>
+        </is>
+      </c>
+      <c r="D2283" t="inlineStr">
+        <is>
+          <t>TFP</t>
+        </is>
+      </c>
+      <c r="E2283" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F2283" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G2283" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="H2283" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="I2283" t="n">
+        <v>98100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0145.xlsx
+++ b/data/0145.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2283"/>
+  <dimension ref="A1:I2284"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81133,6 +81133,41 @@
         <v>98100</v>
       </c>
     </row>
+    <row r="2284">
+      <c r="A2284" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2284" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2284" t="inlineStr">
+        <is>
+          <t>0145</t>
+        </is>
+      </c>
+      <c r="D2284" t="inlineStr">
+        <is>
+          <t>TFP</t>
+        </is>
+      </c>
+      <c r="E2284" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F2284" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G2284" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H2284" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I2284" t="n">
+        <v>9000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0145.xlsx
+++ b/data/0145.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2284"/>
+  <dimension ref="A1:I2285"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81168,6 +81168,41 @@
         <v>9000</v>
       </c>
     </row>
+    <row r="2285">
+      <c r="A2285" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2285" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2285" t="inlineStr">
+        <is>
+          <t>0145</t>
+        </is>
+      </c>
+      <c r="D2285" t="inlineStr">
+        <is>
+          <t>TFP</t>
+        </is>
+      </c>
+      <c r="E2285" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F2285" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G2285" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="H2285" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I2285" t="n">
+        <v>329700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0145.xlsx
+++ b/data/0145.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2285"/>
+  <dimension ref="A1:I2286"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81203,6 +81203,41 @@
         <v>329700</v>
       </c>
     </row>
+    <row r="2286">
+      <c r="A2286" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2286" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2286" t="inlineStr">
+        <is>
+          <t>0145</t>
+        </is>
+      </c>
+      <c r="D2286" t="inlineStr">
+        <is>
+          <t>TFP</t>
+        </is>
+      </c>
+      <c r="E2286" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F2286" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G2286" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H2286" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I2286" t="n">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0145.xlsx
+++ b/data/0145.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2286"/>
+  <dimension ref="A1:I2287"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81238,6 +81238,43 @@
         <v>100</v>
       </c>
     </row>
+    <row r="2287">
+      <c r="A2287" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2287" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2287" t="inlineStr">
+        <is>
+          <t>0145</t>
+        </is>
+      </c>
+      <c r="D2287" t="inlineStr">
+        <is>
+          <t>TFP</t>
+        </is>
+      </c>
+      <c r="E2287" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F2287" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G2287" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H2287" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I2287" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0145.xlsx
+++ b/data/0145.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2287"/>
+  <dimension ref="A1:I2288"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81275,6 +81275,41 @@
         </is>
       </c>
     </row>
+    <row r="2288">
+      <c r="A2288" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2288" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2288" t="inlineStr">
+        <is>
+          <t>0145</t>
+        </is>
+      </c>
+      <c r="D2288" t="inlineStr">
+        <is>
+          <t>TFP</t>
+        </is>
+      </c>
+      <c r="E2288" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F2288" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G2288" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H2288" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I2288" t="n">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0145.xlsx
+++ b/data/0145.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2288"/>
+  <dimension ref="A1:I2289"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81310,6 +81310,41 @@
         <v>100</v>
       </c>
     </row>
+    <row r="2289">
+      <c r="A2289" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2289" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2289" t="inlineStr">
+        <is>
+          <t>0145</t>
+        </is>
+      </c>
+      <c r="D2289" t="inlineStr">
+        <is>
+          <t>TFP</t>
+        </is>
+      </c>
+      <c r="E2289" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F2289" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G2289" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H2289" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I2289" t="n">
+        <v>400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0145.xlsx
+++ b/data/0145.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2289"/>
+  <dimension ref="A1:I2290"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81345,6 +81345,43 @@
         <v>400</v>
       </c>
     </row>
+    <row r="2290">
+      <c r="A2290" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2290" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2290" t="inlineStr">
+        <is>
+          <t>0145</t>
+        </is>
+      </c>
+      <c r="D2290" t="inlineStr">
+        <is>
+          <t>TFP</t>
+        </is>
+      </c>
+      <c r="E2290" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F2290" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G2290" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H2290" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I2290" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0145.xlsx
+++ b/data/0145.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2290"/>
+  <dimension ref="A1:I2291"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81382,6 +81382,43 @@
         </is>
       </c>
     </row>
+    <row r="2291">
+      <c r="A2291" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2291" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2291" t="inlineStr">
+        <is>
+          <t>0145</t>
+        </is>
+      </c>
+      <c r="D2291" t="inlineStr">
+        <is>
+          <t>TFP</t>
+        </is>
+      </c>
+      <c r="E2291" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F2291" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G2291" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H2291" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I2291" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0145.xlsx
+++ b/data/0145.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2291"/>
+  <dimension ref="A1:I2292"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81419,6 +81419,41 @@
         </is>
       </c>
     </row>
+    <row r="2292">
+      <c r="A2292" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2292" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2292" t="inlineStr">
+        <is>
+          <t>0145</t>
+        </is>
+      </c>
+      <c r="D2292" t="inlineStr">
+        <is>
+          <t>TFP</t>
+        </is>
+      </c>
+      <c r="E2292" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F2292" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G2292" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H2292" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I2292" t="n">
+        <v>140000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0145.xlsx
+++ b/data/0145.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2292"/>
+  <dimension ref="A1:I2293"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81454,6 +81454,41 @@
         <v>140000</v>
       </c>
     </row>
+    <row r="2293">
+      <c r="A2293" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2293" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2293" t="inlineStr">
+        <is>
+          <t>0145</t>
+        </is>
+      </c>
+      <c r="D2293" t="inlineStr">
+        <is>
+          <t>TFP</t>
+        </is>
+      </c>
+      <c r="E2293" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F2293" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G2293" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H2293" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I2293" t="n">
+        <v>13200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0145.xlsx
+++ b/data/0145.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2293"/>
+  <dimension ref="A1:I2294"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81489,6 +81489,41 @@
         <v>13200</v>
       </c>
     </row>
+    <row r="2294">
+      <c r="A2294" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2294" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2294" t="inlineStr">
+        <is>
+          <t>0145</t>
+        </is>
+      </c>
+      <c r="D2294" t="inlineStr">
+        <is>
+          <t>TFP</t>
+        </is>
+      </c>
+      <c r="E2294" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F2294" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G2294" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H2294" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I2294" t="n">
+        <v>300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0145.xlsx
+++ b/data/0145.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2294"/>
+  <dimension ref="A1:I2295"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81524,6 +81524,41 @@
         <v>300</v>
       </c>
     </row>
+    <row r="2295">
+      <c r="A2295" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2295" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2295" t="inlineStr">
+        <is>
+          <t>0145</t>
+        </is>
+      </c>
+      <c r="D2295" t="inlineStr">
+        <is>
+          <t>TFP</t>
+        </is>
+      </c>
+      <c r="E2295" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F2295" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G2295" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H2295" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I2295" t="n">
+        <v>20000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0145.xlsx
+++ b/data/0145.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2295"/>
+  <dimension ref="A1:I2296"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81559,6 +81559,43 @@
         <v>20000</v>
       </c>
     </row>
+    <row r="2296">
+      <c r="A2296" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2296" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2296" t="inlineStr">
+        <is>
+          <t>0145</t>
+        </is>
+      </c>
+      <c r="D2296" t="inlineStr">
+        <is>
+          <t>TFP</t>
+        </is>
+      </c>
+      <c r="E2296" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F2296" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G2296" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H2296" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I2296" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0145.xlsx
+++ b/data/0145.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2478"/>
+  <dimension ref="A1:I2479"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87966,6 +87966,41 @@
         </is>
       </c>
     </row>
+    <row r="2479">
+      <c r="A2479" t="n">
+        <v>1586217600</v>
+      </c>
+      <c r="B2479" t="inlineStr">
+        <is>
+          <t>2020-04-07</t>
+        </is>
+      </c>
+      <c r="C2479" t="inlineStr">
+        <is>
+          <t>0145</t>
+        </is>
+      </c>
+      <c r="D2479" t="inlineStr">
+        <is>
+          <t>TFP</t>
+        </is>
+      </c>
+      <c r="E2479" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="F2479" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G2479" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="H2479" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I2479" t="n">
+        <v>359000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0145.xlsx
+++ b/data/0145.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2479"/>
+  <dimension ref="A1:I2480"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88001,6 +88001,41 @@
         <v>359000</v>
       </c>
     </row>
+    <row r="2480">
+      <c r="A2480" t="n">
+        <v>1586304000</v>
+      </c>
+      <c r="B2480" t="inlineStr">
+        <is>
+          <t>2020-04-08</t>
+        </is>
+      </c>
+      <c r="C2480" t="inlineStr">
+        <is>
+          <t>0145</t>
+        </is>
+      </c>
+      <c r="D2480" t="inlineStr">
+        <is>
+          <t>TFP</t>
+        </is>
+      </c>
+      <c r="E2480" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="F2480" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G2480" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="H2480" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I2480" t="n">
+        <v>620100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0145.xlsx
+++ b/data/0145.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2480"/>
+  <dimension ref="A1:I2481"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88036,6 +88036,41 @@
         <v>620100</v>
       </c>
     </row>
+    <row r="2481">
+      <c r="A2481" t="n">
+        <v>1586390400</v>
+      </c>
+      <c r="B2481" t="inlineStr">
+        <is>
+          <t>2020-04-09</t>
+        </is>
+      </c>
+      <c r="C2481" t="inlineStr">
+        <is>
+          <t>0145</t>
+        </is>
+      </c>
+      <c r="D2481" t="inlineStr">
+        <is>
+          <t>TFP</t>
+        </is>
+      </c>
+      <c r="E2481" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="F2481" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="G2481" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="H2481" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="I2481" t="n">
+        <v>38600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0145.xlsx
+++ b/data/0145.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2481"/>
+  <dimension ref="A1:I2482"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88071,6 +88071,43 @@
         <v>38600</v>
       </c>
     </row>
+    <row r="2482">
+      <c r="A2482" t="n">
+        <v>1586476800</v>
+      </c>
+      <c r="B2482" t="inlineStr">
+        <is>
+          <t>2020-04-10</t>
+        </is>
+      </c>
+      <c r="C2482" t="inlineStr">
+        <is>
+          <t>0145</t>
+        </is>
+      </c>
+      <c r="D2482" t="inlineStr">
+        <is>
+          <t>TFP</t>
+        </is>
+      </c>
+      <c r="E2482" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="F2482" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="G2482" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="H2482" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="I2482" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0145.xlsx
+++ b/data/0145.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2482"/>
+  <dimension ref="A1:I2483"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88108,6 +88108,41 @@
         </is>
       </c>
     </row>
+    <row r="2483">
+      <c r="A2483" t="n">
+        <v>1586736000</v>
+      </c>
+      <c r="B2483" t="inlineStr">
+        <is>
+          <t>2020-04-13</t>
+        </is>
+      </c>
+      <c r="C2483" t="inlineStr">
+        <is>
+          <t>0145</t>
+        </is>
+      </c>
+      <c r="D2483" t="inlineStr">
+        <is>
+          <t>TFP</t>
+        </is>
+      </c>
+      <c r="E2483" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F2483" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G2483" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H2483" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I2483" t="n">
+        <v>100000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0145.xlsx
+++ b/data/0145.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2483"/>
+  <dimension ref="A1:I2484"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88143,6 +88143,41 @@
         <v>100000</v>
       </c>
     </row>
+    <row r="2484">
+      <c r="A2484" t="n">
+        <v>1586822400</v>
+      </c>
+      <c r="B2484" t="inlineStr">
+        <is>
+          <t>2020-04-14</t>
+        </is>
+      </c>
+      <c r="C2484" t="inlineStr">
+        <is>
+          <t>0145</t>
+        </is>
+      </c>
+      <c r="D2484" t="inlineStr">
+        <is>
+          <t>TFP</t>
+        </is>
+      </c>
+      <c r="E2484" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F2484" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G2484" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H2484" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I2484" t="n">
+        <v>60000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0145.xlsx
+++ b/data/0145.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2484"/>
+  <dimension ref="A1:I2485"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88178,6 +88178,41 @@
         <v>60000</v>
       </c>
     </row>
+    <row r="2485">
+      <c r="A2485" t="n">
+        <v>1586908800</v>
+      </c>
+      <c r="B2485" t="inlineStr">
+        <is>
+          <t>2020-04-15</t>
+        </is>
+      </c>
+      <c r="C2485" t="inlineStr">
+        <is>
+          <t>0145</t>
+        </is>
+      </c>
+      <c r="D2485" t="inlineStr">
+        <is>
+          <t>TFP</t>
+        </is>
+      </c>
+      <c r="E2485" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F2485" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G2485" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H2485" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I2485" t="n">
+        <v>60000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0145.xlsx
+++ b/data/0145.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2485"/>
+  <dimension ref="A1:I2486"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88213,6 +88213,41 @@
         <v>60000</v>
       </c>
     </row>
+    <row r="2486">
+      <c r="A2486" t="n">
+        <v>1586995200</v>
+      </c>
+      <c r="B2486" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
+      <c r="C2486" t="inlineStr">
+        <is>
+          <t>0145</t>
+        </is>
+      </c>
+      <c r="D2486" t="inlineStr">
+        <is>
+          <t>TFP</t>
+        </is>
+      </c>
+      <c r="E2486" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F2486" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G2486" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H2486" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I2486" t="n">
+        <v>789000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0145.xlsx
+++ b/data/0145.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2486"/>
+  <dimension ref="A1:I2487"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88248,6 +88248,41 @@
         <v>789000</v>
       </c>
     </row>
+    <row r="2487">
+      <c r="A2487" t="n">
+        <v>1587081600</v>
+      </c>
+      <c r="B2487" t="inlineStr">
+        <is>
+          <t>2020-04-17</t>
+        </is>
+      </c>
+      <c r="C2487" t="inlineStr">
+        <is>
+          <t>0145</t>
+        </is>
+      </c>
+      <c r="D2487" t="inlineStr">
+        <is>
+          <t>TFP</t>
+        </is>
+      </c>
+      <c r="E2487" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F2487" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G2487" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H2487" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I2487" t="n">
+        <v>283500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0145.xlsx
+++ b/data/0145.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2487"/>
+  <dimension ref="A1:I2489"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88283,6 +88283,78 @@
         <v>283500</v>
       </c>
     </row>
+    <row r="2488">
+      <c r="A2488" t="n">
+        <v>1587340800</v>
+      </c>
+      <c r="B2488" t="inlineStr">
+        <is>
+          <t>2020-04-20</t>
+        </is>
+      </c>
+      <c r="C2488" t="inlineStr">
+        <is>
+          <t>0145</t>
+        </is>
+      </c>
+      <c r="D2488" t="inlineStr">
+        <is>
+          <t>TFP</t>
+        </is>
+      </c>
+      <c r="E2488" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F2488" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="G2488" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H2488" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="I2488" t="n">
+        <v>173000</v>
+      </c>
+    </row>
+    <row r="2489">
+      <c r="A2489" t="n">
+        <v>1587427200</v>
+      </c>
+      <c r="B2489" t="inlineStr">
+        <is>
+          <t>2020-04-21</t>
+        </is>
+      </c>
+      <c r="C2489" t="inlineStr">
+        <is>
+          <t>0145</t>
+        </is>
+      </c>
+      <c r="D2489" t="inlineStr">
+        <is>
+          <t>TFP</t>
+        </is>
+      </c>
+      <c r="E2489" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="F2489" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="G2489" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="H2489" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="I2489" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0145.xlsx
+++ b/data/0145.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2489"/>
+  <dimension ref="A1:I2490"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88355,6 +88355,41 @@
         </is>
       </c>
     </row>
+    <row r="2490">
+      <c r="A2490" t="n">
+        <v>1587513600</v>
+      </c>
+      <c r="B2490" t="inlineStr">
+        <is>
+          <t>2020-04-22</t>
+        </is>
+      </c>
+      <c r="C2490" t="inlineStr">
+        <is>
+          <t>0145</t>
+        </is>
+      </c>
+      <c r="D2490" t="inlineStr">
+        <is>
+          <t>TFP</t>
+        </is>
+      </c>
+      <c r="E2490" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F2490" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G2490" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H2490" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I2490" t="n">
+        <v>261700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0145.xlsx
+++ b/data/0145.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2490"/>
+  <dimension ref="A1:I2493"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88390,6 +88390,111 @@
         <v>261700</v>
       </c>
     </row>
+    <row r="2491">
+      <c r="A2491" t="n">
+        <v>1587600000</v>
+      </c>
+      <c r="B2491" t="inlineStr">
+        <is>
+          <t>2020-04-23</t>
+        </is>
+      </c>
+      <c r="C2491" t="inlineStr">
+        <is>
+          <t>0145</t>
+        </is>
+      </c>
+      <c r="D2491" t="inlineStr">
+        <is>
+          <t>TFP</t>
+        </is>
+      </c>
+      <c r="E2491" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F2491" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="G2491" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H2491" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I2491" t="n">
+        <v>1609600</v>
+      </c>
+    </row>
+    <row r="2492">
+      <c r="A2492" t="n">
+        <v>1587686400</v>
+      </c>
+      <c r="B2492" t="inlineStr">
+        <is>
+          <t>2020-04-24</t>
+        </is>
+      </c>
+      <c r="C2492" t="inlineStr">
+        <is>
+          <t>0145</t>
+        </is>
+      </c>
+      <c r="D2492" t="inlineStr">
+        <is>
+          <t>TFP</t>
+        </is>
+      </c>
+      <c r="E2492" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F2492" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G2492" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H2492" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I2492" t="n">
+        <v>414300</v>
+      </c>
+    </row>
+    <row r="2493">
+      <c r="A2493" t="n">
+        <v>1587945600</v>
+      </c>
+      <c r="B2493" t="inlineStr">
+        <is>
+          <t>2020-04-27</t>
+        </is>
+      </c>
+      <c r="C2493" t="inlineStr">
+        <is>
+          <t>0145</t>
+        </is>
+      </c>
+      <c r="D2493" t="inlineStr">
+        <is>
+          <t>TFP</t>
+        </is>
+      </c>
+      <c r="E2493" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F2493" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G2493" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H2493" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I2493" t="n">
+        <v>96800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0145.xlsx
+++ b/data/0145.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2493"/>
+  <dimension ref="A1:I2494"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88495,6 +88495,41 @@
         <v>96800</v>
       </c>
     </row>
+    <row r="2494">
+      <c r="A2494" t="n">
+        <v>1588032000</v>
+      </c>
+      <c r="B2494" t="inlineStr">
+        <is>
+          <t>2020-04-28</t>
+        </is>
+      </c>
+      <c r="C2494" t="inlineStr">
+        <is>
+          <t>0145</t>
+        </is>
+      </c>
+      <c r="D2494" t="inlineStr">
+        <is>
+          <t>TFP</t>
+        </is>
+      </c>
+      <c r="E2494" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F2494" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G2494" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H2494" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I2494" t="n">
+        <v>310100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0145.xlsx
+++ b/data/0145.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2494"/>
+  <dimension ref="A1:I2495"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88530,6 +88530,41 @@
         <v>310100</v>
       </c>
     </row>
+    <row r="2495">
+      <c r="A2495" t="n">
+        <v>1588118400</v>
+      </c>
+      <c r="B2495" t="inlineStr">
+        <is>
+          <t>2020-04-29</t>
+        </is>
+      </c>
+      <c r="C2495" t="inlineStr">
+        <is>
+          <t>0145</t>
+        </is>
+      </c>
+      <c r="D2495" t="inlineStr">
+        <is>
+          <t>TFP</t>
+        </is>
+      </c>
+      <c r="E2495" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F2495" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G2495" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H2495" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I2495" t="n">
+        <v>71400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0145.xlsx
+++ b/data/0145.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2495"/>
+  <dimension ref="A1:I2498"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88565,6 +88565,111 @@
         <v>71400</v>
       </c>
     </row>
+    <row r="2496">
+      <c r="A2496" t="n">
+        <v>1588204800</v>
+      </c>
+      <c r="B2496" t="inlineStr">
+        <is>
+          <t>2020-04-30</t>
+        </is>
+      </c>
+      <c r="C2496" t="inlineStr">
+        <is>
+          <t>0145</t>
+        </is>
+      </c>
+      <c r="D2496" t="inlineStr">
+        <is>
+          <t>TFP</t>
+        </is>
+      </c>
+      <c r="E2496" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F2496" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G2496" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H2496" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I2496" t="n">
+        <v>135500</v>
+      </c>
+    </row>
+    <row r="2497">
+      <c r="A2497" t="n">
+        <v>1588550400</v>
+      </c>
+      <c r="B2497" t="inlineStr">
+        <is>
+          <t>2020-05-04</t>
+        </is>
+      </c>
+      <c r="C2497" t="inlineStr">
+        <is>
+          <t>0145</t>
+        </is>
+      </c>
+      <c r="D2497" t="inlineStr">
+        <is>
+          <t>TFP</t>
+        </is>
+      </c>
+      <c r="E2497" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F2497" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G2497" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H2497" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I2497" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="2498">
+      <c r="A2498" t="n">
+        <v>1588636800</v>
+      </c>
+      <c r="B2498" t="inlineStr">
+        <is>
+          <t>2020-05-05</t>
+        </is>
+      </c>
+      <c r="C2498" t="inlineStr">
+        <is>
+          <t>0145</t>
+        </is>
+      </c>
+      <c r="D2498" t="inlineStr">
+        <is>
+          <t>TFP</t>
+        </is>
+      </c>
+      <c r="E2498" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F2498" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G2498" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H2498" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I2498" t="n">
+        <v>300100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
